--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T12:21:03-03:00</t>
+    <t>2021-09-13T12:43:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core//StructureDefinition/CorePrestadorCl</t>
+    <t>http://core.hl7chile.cl/StructureDefinition/CorePrestadorCl</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T12:43:20-03:00</t>
+    <t>2021-09-15T12:30:30-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,13 +462,13 @@
 </t>
   </si>
   <si>
-    <t>Listados de Id de Prestador Habilitado</t>
-  </si>
-  <si>
-    <t>Este es el listado de Identificaciones de un Prestador. El reconocimiento en Chile se hace a travez de un Número RUN</t>
-  </si>
-  <si>
-    <t>Este elemento solo considera un identificador de tipo RUN</t>
+    <t>Id de los prestadores</t>
+  </si>
+  <si>
+    <t>Identificador para cada prestador. El identificador principal en Chile es el Registro Único Nacional (RUN), y además, se puede ingresar un ID extra para cada prestador, disponibilizado por Registro Nacional de Prestadores Institucionales (NRPI)</t>
+  </si>
+  <si>
+    <t>Este elemento permite ingresar dos identificadores, uno de tipo RUN y uno de tipo RNPI</t>
   </si>
   <si>
     <t>Often, specific identities are assigned for the agent.</t>
@@ -1339,7 +1339,7 @@
     <t>Erewhon</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core//ValueSet/CodNacComunas</t>
+    <t>http://core.hl7chile.cl/ValueSet/CodNacComunas</t>
   </si>
   <si>
     <t>Address.city</t>
@@ -1373,7 +1373,7 @@
     <t>Madison</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core//ValueSet/CodProv</t>
+    <t>http://core.hl7chile.cl/ValueSet/CodProv</t>
   </si>
   <si>
     <t>Address.district</t>
@@ -1398,7 +1398,7 @@
     <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core//ValueSet/CodReg</t>
+    <t>http://core.hl7chile.cl/ValueSet/CodReg</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -1726,7 +1726,7 @@
     <t>Sistema basado en la APi de RNPI correspondiente a los  certificados válidos según legislación chilena</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core//ValueSet/COD-Cert-RNPI</t>
+    <t>http://core.hl7chile.cl/ValueSet/COD-Cert-RNPI</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.system</t>
